--- a/data/results/merged_summary-2018-2024.xlsx
+++ b/data/results/merged_summary-2018-2024.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3398 rows × 15 cols</t>
+          <t>3398 rows × 14 cols</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.30 MB</t>
+          <t>1.11 MB</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0 / 15</t>
+          <t>0 / 14</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,42 +1104,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>país</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3398</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['Costa Rica']</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/results/merged_summary-2018-2024.xlsx
+++ b/data/results/merged_summary-2018-2024.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.11 MB</t>
+          <t>1.08 MB</t>
         </is>
       </c>
     </row>

--- a/data/results/merged_summary-2018-2024.xlsx
+++ b/data/results/merged_summary-2018-2024.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,77 +453,209 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3398 rows × 14 cols</t>
+          <t>3,398 rows × 14 cols</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.08 MB</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Columns with NA</t>
+          <t>Provinces</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0 / 14</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Duplicate Rows</t>
+          <t>Time Period</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2018 - 2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Numeric Columns</t>
+          <t>Total Homicides</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4,746.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Categorical Columns</t>
+          <t>Average Homicides per 100k</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13.11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>Total Cocaine Events</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>79,354.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Total Cocaine (kg)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>222,227.39850875002</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Crack Events</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>145,641.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Total Crack (piedras)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2,472,717.8122252254</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total Marijuana Events</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>587,866.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total Marijuana (kg)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>119,266.42475987764</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.11 MB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Columns with NA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0 / 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Duplicate Rows</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Numeric Columns</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Categorical Columns</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>Datetime Columns</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/data/results/merged_summary-2018-2024.xlsx
+++ b/data/results/merged_summary-2018-2024.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>222,227.39850875002</t>
+          <t>222,227.4</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2,472,717.8122252254</t>
+          <t>2,472,717.81</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>119,266.42475987764</t>
+          <t>119,266.42</t>
         </is>
       </c>
     </row>

--- a/data/results/merged_summary-2018-2024.xlsx
+++ b/data/results/merged_summary-2018-2024.xlsx
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.11 MB</t>
+          <t>1.09 MB</t>
         </is>
       </c>
     </row>
